--- a/dataset/processed/cleaned/Cleaned Member Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Member Data.xlsx
@@ -609,13 +609,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-M-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-003</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>BA-Hons</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19800000000000000</t>
+          <t>19900000000000000</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -723,13 +723,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ME-M-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-004</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>BBA</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -837,13 +837,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>222-001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>BSS</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>19900000000000000</t>
+          <t>19700000000000000</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>

--- a/dataset/processed/cleaned/Cleaned Member Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Member Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,13 +609,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ME-M-12</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>222-003</t>
+          <t>222-003 - samity3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -669,17 +669,11 @@
           <t>BA-Hons</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>19900000000000000</t>
-        </is>
+      <c r="R2" t="n">
+        <v>1.98e+16</v>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
@@ -723,13 +717,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ME-M-24</t>
+          <t>ME-W</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>222-004</t>
+          <t>222-004 - samity4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -778,22 +772,12 @@
           <t>Ariful Islam</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>BBA</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>19800000000000000</t>
-        </is>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>1.99e+16</v>
       </c>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
@@ -826,39 +810,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amir Hossen</t>
+          <t>Shyfali Pal</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2014-01-14</t>
+          <t>2005-04-14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>222-001</t>
+          <t>222-003 - samity3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1985-06-02</t>
+          <t>1983-06-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>001-001-009</t>
+          <t>001-005-001</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -869,45 +853,39 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Amolla Pual</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Olana Pual</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>M</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Fakir Ahammed</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Sufia Begum</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>MD.Eddres</t>
+          <t>Pradip Pal</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>BSS</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>19700000000000000</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>5051575745</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
@@ -924,12 +902,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1811364018</t>
+          <t>1812341051</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -937,6 +915,438 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ruma Pal</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2005-04-14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMC-W	</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>222-003 - samity3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1980-10-17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>001-005-002</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Manik Paul</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Kolphona Paul</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Basan Pal</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>MBS</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>5051574745</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>1856214090</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rupna Pal</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2005-04-14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMC-W	</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>222-003 - samity3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1984-02-10</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>001-005-003</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Ranadir Paul</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Depali Paul</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Sapan Pal</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Dakhil</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>5051575755</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>1630578589</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bappi Pal</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2009-07-13</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>JAGO-W</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1983-04-15</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>001-005-005</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Katro Mohon</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Onita</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sagar Pal</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Fazil</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>1.99e+16</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>1812944030</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bandana Pal</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2014-12-15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>JAGO-W</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>222-001 - samity1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1985-09-10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>001-005-008</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gopal Paul </t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Sova Paul</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Haradhon Pal</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Illiterate</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>5051125745</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>1821096307</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset/processed/cleaned/Cleaned Member Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Member Data.xlsx
@@ -604,7 +604,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2008-09-15</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>001-001-007</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>001-001-008</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>001-005-001</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>001-005-002</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>001-005-003</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>001-005-005</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>001-005-008</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">

--- a/dataset/processed/cleaned/Cleaned Member Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Member Data.xlsx
@@ -604,7 +604,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2008-09-15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/dataset/processed/cleaned/Cleaned Member Data.xlsx
+++ b/dataset/processed/cleaned/Cleaned Member Data.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Member Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Samity Name</t>
+          <t>Samity Code</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Samity Code</t>
+          <t>System Generated Samity Information</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -612,10 +612,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -688,11 +692,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr">
         <is>
           <t>1845224344</t>
@@ -720,10 +720,14 @@
           <t>ME-W</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>222-004</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>222-004 - samity4</t>
+          <t>222-009 - Golap</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -792,11 +796,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr">
         <is>
           <t>1812691691</t>
@@ -824,10 +824,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -900,11 +904,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr">
         <is>
           <t>1812341051</t>
@@ -932,10 +932,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1008,11 +1012,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
           <t>1856214090</t>
@@ -1040,10 +1040,14 @@
           <t xml:space="preserve">RMC-W	</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>222-003</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>222-003 - samity3</t>
+          <t>222-008 - Dollan Chapa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1116,11 +1120,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr">
         <is>
           <t>1630578589</t>
@@ -1148,10 +1148,14 @@
           <t>JAGO-W</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1224,11 +1228,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr">
         <is>
           <t>1812944030</t>
@@ -1256,10 +1256,14 @@
           <t>JAGO-W</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>222-001</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>222-001 - samity1</t>
+          <t>222-007 - LAMP 1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1332,11 +1336,7 @@
           <t>General</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
           <t>1821096307</t>
